--- a/转json/Tables/Carrier.xlsx
+++ b/转json/Tables/Carrier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkill\转json\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A76FC8-57CC-425C-9767-F541A03B70CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCDF3B5-67D4-497B-8F03-8590C2C92906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12435" yWindow="4845" windowWidth="20745" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="3930" windowWidth="31230" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -84,17 +84,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>刀光2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀光1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀光3</t>
-  </si>
-  <si>
     <t>刀光4</t>
   </si>
   <si>
@@ -128,6 +117,88 @@
   </si>
   <si>
     <t>Sphere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capsule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>destroyWhenHurt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否造成伤害后销毁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ool</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurtColdTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loat</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n秒造成1次伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>needRotate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动时是否面朝敌人</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -243,6 +314,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -253,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -262,6 +342,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -542,7 +623,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,6 +633,9 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="41.375" customWidth="1"/>
     <col min="5" max="5" width="44.875" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -565,10 +649,22 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
+      <c r="F1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -587,10 +683,18 @@
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -614,15 +718,23 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -640,13 +752,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -654,13 +778,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -668,13 +804,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="I6" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -682,13 +830,25 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -696,13 +856,25 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -710,13 +882,25 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -724,13 +908,25 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/转json/Tables/Carrier.xlsx
+++ b/转json/Tables/Carrier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCDF3B5-67D4-497B-8F03-8590C2C92906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799A4ABD-B152-47BF-8A2B-E391B52F23F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="3930" windowWidth="31230" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3870" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -84,18 +84,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>刀光4</t>
-  </si>
-  <si>
-    <t>刀光5</t>
-  </si>
-  <si>
-    <t>刀光6</t>
-  </si>
-  <si>
-    <t>刀光7</t>
-  </si>
-  <si>
     <t>speed</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -109,14 +97,6 @@
   </si>
   <si>
     <t>carrierPath</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cube</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sphere</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -182,23 +162,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>龙卷风</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>球</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>needRotate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>移动时是否面朝敌人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体，造成效果后销毁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体，持续造成效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体，造成效果后销毁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法粒子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法旋风</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法阵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法爆破</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -620,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,6 +644,8 @@
     <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="26.375" customWidth="1"/>
+    <col min="9" max="9" width="29.625" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -649,22 +659,25 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -684,18 +697,18 @@
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2"/>
+        <v>18</v>
+      </c>
+      <c r="J2" s="3"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -718,24 +731,26 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -755,10 +770,10 @@
         <v>31</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7" t="b">
         <v>1</v>
@@ -771,6 +786,9 @@
       </c>
       <c r="I4" s="7" t="b">
         <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -781,22 +799,25 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="I5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7" t="b">
-        <v>1</v>
+      <c r="J5" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -804,25 +825,28 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
       <c r="H6" s="7">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -830,104 +854,44 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="I7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7" t="b">
-        <v>1</v>
+      <c r="J7" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>5</v>
-      </c>
-      <c r="I9" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
